--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -633,31 +633,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 14414-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 14414-2020.xlsx", "A 14414-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 14414-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 14414-2020.png", "A 14414-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/knärot/A 14414-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/knärot/A 14414-2020.png", "A 14414-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 14414-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 14414-2020.docx", "A 14414-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 14414-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 14414-2020.docx", "A 14414-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 14414-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 14414-2020.docx", "A 14414-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 14414-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 14414-2020.docx", "A 14414-2020")</f>
         <v/>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,27 +724,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 11376-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 11376-2019.xlsx", "A 11376-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 11376-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 11376-2019.png", "A 11376-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 11376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 11376-2019.docx", "A 11376-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 11376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 11376-2019.docx", "A 11376-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 11376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 11376-2019.docx", "A 11376-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 11376-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 11376-2019.docx", "A 11376-2019")</f>
         <v/>
       </c>
     </row>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,27 +811,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 54706-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 54706-2021.xlsx", "A 54706-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 54706-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 54706-2021.png", "A 54706-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 54706-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 54706-2021.docx", "A 54706-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 54706-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 54706-2021.docx", "A 54706-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 54706-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 54706-2021.docx", "A 54706-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 54706-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 54706-2021.docx", "A 54706-2021")</f>
         <v/>
       </c>
     </row>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -897,27 +897,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 57791-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 57791-2021.xlsx", "A 57791-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 57791-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 57791-2021.png", "A 57791-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 57791-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 57791-2021.docx", "A 57791-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 57791-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 57791-2021.docx", "A 57791-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 57791-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 57791-2021.docx", "A 57791-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 57791-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 57791-2021.docx", "A 57791-2021")</f>
         <v/>
       </c>
     </row>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -988,27 +988,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 67507-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 67507-2021.xlsx", "A 67507-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 67507-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 67507-2021.png", "A 67507-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 67507-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 67507-2021.docx", "A 67507-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 67507-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 67507-2021.docx", "A 67507-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 67507-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 67507-2021.docx", "A 67507-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 67507-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 67507-2021.docx", "A 67507-2021")</f>
         <v/>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1073,27 +1073,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 18498-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 18498-2019.xlsx", "A 18498-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 18498-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 18498-2019.png", "A 18498-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 18498-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 18498-2019.docx", "A 18498-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 18498-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 18498-2019.docx", "A 18498-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 18498-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 18498-2019.docx", "A 18498-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 18498-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 18498-2019.docx", "A 18498-2019")</f>
         <v/>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1158,27 +1158,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 37323-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 37323-2020.xlsx", "A 37323-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 37323-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 37323-2020.png", "A 37323-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 37323-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 37323-2020.docx", "A 37323-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 37323-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 37323-2020.docx", "A 37323-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 37323-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 37323-2020.docx", "A 37323-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 37323-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 37323-2020.docx", "A 37323-2020")</f>
         <v/>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1243,27 +1243,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 50811-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 50811-2020.xlsx", "A 50811-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 50811-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 50811-2020.png", "A 50811-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 50811-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 50811-2020.docx", "A 50811-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 50811-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 50811-2020.docx", "A 50811-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 50811-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 50811-2020.docx", "A 50811-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 50811-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 50811-2020.docx", "A 50811-2020")</f>
         <v/>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1328,27 +1328,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 56400-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 56400-2020.xlsx", "A 56400-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 56400-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 56400-2020.png", "A 56400-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 56400-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 56400-2020.docx", "A 56400-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 56400-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 56400-2020.docx", "A 56400-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 56400-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 56400-2020.docx", "A 56400-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 56400-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 56400-2020.docx", "A 56400-2020")</f>
         <v/>
       </c>
     </row>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1413,27 +1413,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 64046-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 64046-2020.xlsx", "A 64046-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 64046-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 64046-2020.png", "A 64046-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 64046-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 64046-2020.docx", "A 64046-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 64046-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 64046-2020.docx", "A 64046-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 64046-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 64046-2020.docx", "A 64046-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 64046-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 64046-2020.docx", "A 64046-2020")</f>
         <v/>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1498,27 +1498,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 13606-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 13606-2022.xlsx", "A 13606-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 13606-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 13606-2022.png", "A 13606-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 13606-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 13606-2022.docx", "A 13606-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 13606-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 13606-2022.docx", "A 13606-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 13606-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 13606-2022.docx", "A 13606-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 13606-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 13606-2022.docx", "A 13606-2022")</f>
         <v/>
       </c>
     </row>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1583,27 +1583,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 8144-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/artfynd/A 8144-2023.xlsx", "A 8144-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 8144-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/kartor/A 8144-2023.png", "A 8144-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 8144-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 8144-2023.docx", "A 8144-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 8144-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 8144-2023.docx", "A 8144-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 8144-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 8144-2023.docx", "A 8144-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 8144-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 8144-2023.docx", "A 8144-2023")</f>
         <v/>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6376,23 +6376,23 @@
       </c>
       <c r="R95" s="2" t="inlineStr"/>
       <c r="U95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/knärot/A 43341-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/knärot/A 43341-2019.png", "A 43341-2019")</f>
         <v/>
       </c>
       <c r="V95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 43341-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomål/A 43341-2019.docx", "A 43341-2019")</f>
         <v/>
       </c>
       <c r="W95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 43341-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/klagomålsmail/A 43341-2019.docx", "A 43341-2019")</f>
         <v/>
       </c>
       <c r="X95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 43341-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsyn/A 43341-2019.docx", "A 43341-2019")</f>
         <v/>
       </c>
       <c r="Y95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 43341-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MARIESTAD/tillsynsmail/A 43341-2019.docx", "A 43341-2019")</f>
         <v/>
       </c>
     </row>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>

--- a/Översikt MARIESTAD.xlsx
+++ b/Översikt MARIESTAD.xlsx
@@ -572,7 +572,7 @@
         <v>43908</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43517</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>44473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44524</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>43559</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         <v>44055</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         <v>44111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
         <v>44137</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>44167</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>44648</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>44974</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         <v>43333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>43384</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>43411</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
         <v>43412</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>43412</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>43413</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         <v>43433</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>43439</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>43444</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43447</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43451</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
         <v>43455</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         <v>43467</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         <v>43474</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         <v>43474</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         <v>43481</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         <v>43487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>43489</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2715,7 +2715,7 @@
         <v>43489</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43494</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
         <v>43494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>43494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>43503</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         <v>43507</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>43509</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         <v>43511</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>43511</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3295,7 +3295,7 @@
         <v>43514</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>43514</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>43517</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>43517</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>43522</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>43529</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>43531</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>43531</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>43544</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43544</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43545</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43570</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
         <v>43570</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         <v>43572</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>43585</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>43591</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>43592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>43593</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>43598</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>43605</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>43613</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>43613</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
         <v>43613</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>43627</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43640</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         <v>43642</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>43644</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>43644</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>43644</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>43647</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         <v>43647</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>43649</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>43649</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>43651</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>43651</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>43656</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>43672</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5729,7 +5729,7 @@
         <v>43672</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>43672</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>43672</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
         <v>43677</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5972,7 +5972,7 @@
         <v>43677</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43677</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>43678</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43706</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43706</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6406,7 +6406,7 @@
         <v>43712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6463,7 +6463,7 @@
         <v>43713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6520,7 +6520,7 @@
         <v>43717</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>43721</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>43727</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>43728</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>43732</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>43739</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>43740</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6929,7 +6929,7 @@
         <v>43740</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>43740</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>43740</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7110,7 +7110,7 @@
         <v>43741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>43741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7224,7 +7224,7 @@
         <v>43770</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7281,7 +7281,7 @@
         <v>43770</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7338,7 +7338,7 @@
         <v>43770</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
         <v>43777</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>43789</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>43789</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>43795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
         <v>43802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>43839</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         <v>43839</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7799,7 +7799,7 @@
         <v>43839</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7856,7 +7856,7 @@
         <v>43846</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7913,7 +7913,7 @@
         <v>43846</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>43846</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         <v>43846</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8084,7 +8084,7 @@
         <v>43852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>43854</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>43865</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8265,7 +8265,7 @@
         <v>43865</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8322,7 +8322,7 @@
         <v>43866</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>43866</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
         <v>43868</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8493,7 +8493,7 @@
         <v>43871</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>43872</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8607,7 +8607,7 @@
         <v>43900</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>43902</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8721,7 +8721,7 @@
         <v>43906</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>43908</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>43909</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>43914</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>43914</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>43914</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9073,7 +9073,7 @@
         <v>43914</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>43920</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9192,7 +9192,7 @@
         <v>43921</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9249,7 +9249,7 @@
         <v>43935</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>43942</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         <v>43956</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         <v>43961</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         <v>43964</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         <v>43966</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9601,7 +9601,7 @@
         <v>43970</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9658,7 +9658,7 @@
         <v>43973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9715,7 +9715,7 @@
         <v>43978</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
         <v>43979</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9829,7 +9829,7 @@
         <v>43979</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9886,7 +9886,7 @@
         <v>43987</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9948,7 +9948,7 @@
         <v>43990</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10005,7 +10005,7 @@
         <v>43993</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10062,7 +10062,7 @@
         <v>43999</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10119,7 +10119,7 @@
         <v>43999</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10176,7 +10176,7 @@
         <v>44015</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
         <v>44024</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
         <v>44029</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44040</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44052</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44056</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44063</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44063</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44063</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10704,7 +10704,7 @@
         <v>44063</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10766,7 +10766,7 @@
         <v>44064</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10823,7 +10823,7 @@
         <v>44067</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44068</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10942,7 +10942,7 @@
         <v>44068</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10999,7 +10999,7 @@
         <v>44081</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11056,7 +11056,7 @@
         <v>44088</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         <v>44088</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11170,7 +11170,7 @@
         <v>44090</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11227,7 +11227,7 @@
         <v>44096</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11284,7 +11284,7 @@
         <v>44104</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         <v>44105</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44106</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44106</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44106</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44106</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44106</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44106</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11755,7 +11755,7 @@
         <v>44112</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11817,7 +11817,7 @@
         <v>44124</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44127</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44130</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>44139</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>44139</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>44139</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>44152</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         <v>44152</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12283,7 +12283,7 @@
         <v>44161</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12340,7 +12340,7 @@
         <v>44165</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         <v>44165</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12511,7 +12511,7 @@
         <v>44165</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12568,7 +12568,7 @@
         <v>44167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12625,7 +12625,7 @@
         <v>44167</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12682,7 +12682,7 @@
         <v>44180</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44186</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12796,7 +12796,7 @@
         <v>44193</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12853,7 +12853,7 @@
         <v>44210</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12915,7 +12915,7 @@
         <v>44221</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12972,7 +12972,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         <v>44238</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13086,7 +13086,7 @@
         <v>44243</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13143,7 +13143,7 @@
         <v>44256</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13200,7 +13200,7 @@
         <v>44259</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13257,7 +13257,7 @@
         <v>44260</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13314,7 +13314,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>44279</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>44295</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>44300</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>44319</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         <v>44319</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>44337</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>44340</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>44344</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>44351</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44356</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>44356</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44357</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>44361</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>44371</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14251,7 +14251,7 @@
         <v>44371</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44371</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44371</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44383</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14489,7 +14489,7 @@
         <v>44386</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         <v>44386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44404</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44412</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14722,7 +14722,7 @@
         <v>44414</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         <v>44426</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14841,7 +14841,7 @@
         <v>44440</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
         <v>44445</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>44445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15012,7 +15012,7 @@
         <v>44446</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44446</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15126,7 +15126,7 @@
         <v>44446</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
         <v>44461</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>44461</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15297,7 +15297,7 @@
         <v>44461</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>44461</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>44484</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15473,7 +15473,7 @@
         <v>44484</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44489</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         <v>44496</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         <v>44516</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         <v>44516</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15773,7 +15773,7 @@
         <v>44521</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>44521</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15887,7 +15887,7 @@
         <v>44523</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15944,7 +15944,7 @@
         <v>44523</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
         <v>44530</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16058,7 +16058,7 @@
         <v>44536</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16120,7 +16120,7 @@
         <v>44536</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16182,7 +16182,7 @@
         <v>44546</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16239,7 +16239,7 @@
         <v>44553</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16296,7 +16296,7 @@
         <v>44571</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16353,7 +16353,7 @@
         <v>44572</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16415,7 +16415,7 @@
         <v>44574</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16472,7 +16472,7 @@
         <v>44587</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16529,7 +16529,7 @@
         <v>44601</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
         <v>44610</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16643,7 +16643,7 @@
         <v>44614</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16700,7 +16700,7 @@
         <v>44614</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16762,7 +16762,7 @@
         <v>44614</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44614</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16886,7 +16886,7 @@
         <v>44614</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>44616</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>44616</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>44616</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44616</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44616</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44617</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17320,7 +17320,7 @@
         <v>44617</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17382,7 +17382,7 @@
         <v>44617</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44617</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44620</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44628</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44629</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44638</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44645</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17806,7 +17806,7 @@
         <v>44649</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>44693</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17920,7 +17920,7 @@
         <v>44694</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17977,7 +17977,7 @@
         <v>44697</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>44739</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>44746</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>44758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>44774</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>44825</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18448,7 +18448,7 @@
         <v>44830</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18505,7 +18505,7 @@
         <v>44830</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>44831</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18624,7 +18624,7 @@
         <v>44833</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18681,7 +18681,7 @@
         <v>44843</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44844</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44844</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>44847</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>44851</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44865</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44868</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44879</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44880</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44880</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44881</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19375,7 +19375,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19432,7 +19432,7 @@
         <v>44917</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19489,7 +19489,7 @@
         <v>44936</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19546,7 +19546,7 @@
         <v>44936</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19603,7 +19603,7 @@
         <v>44937</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19660,7 +19660,7 @@
         <v>44937</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19717,7 +19717,7 @@
         <v>44942</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>44943</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44944</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44944</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44957</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>44958</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>44965</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>44971</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>44971</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20230,7 +20230,7 @@
         <v>44973</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44973</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20344,7 +20344,7 @@
         <v>44974</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20401,7 +20401,7 @@
         <v>44981</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20458,7 +20458,7 @@
         <v>44986</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44986</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20572,7 +20572,7 @@
         <v>44986</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>44993</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>44993</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>44993</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44999</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>45001</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20929,7 +20929,7 @@
         <v>45001</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20986,7 +20986,7 @@
         <v>45005</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>45006</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45006</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45033</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45070</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45070</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45084</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45112</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>45147</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21581,7 +21581,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21643,7 +21643,7 @@
         <v>45162</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
